--- a/File/Modello.xlsx
+++ b/File/Modello.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVbNet\stegip\ImpOrd\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{890A025D-C041-4645-97A5-D5E5AC1E5F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0674364D-1768-4FA0-9AA9-C1F512CC2E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2340" windowWidth="27000" windowHeight="13665" xr2:uid="{D7FFAFDD-DD47-427E-9FF2-7B19ECC38605}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D7FFAFDD-DD47-427E-9FF2-7B19ECC38605}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>codcli</t>
   </si>
@@ -512,9 +512,6 @@
     <t>BLU</t>
   </si>
   <si>
-    <t>5 -S 10 - L</t>
-  </si>
-  <si>
     <t>TSHXXXKKK99</t>
   </si>
   <si>
@@ -546,6 +543,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>terz4</t>
+  </si>
+  <si>
+    <t>5 -S ; 10 - L</t>
   </si>
 </sst>
 </file>
@@ -1125,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B224F1-993A-43B8-A825-2F38BE0AC400}">
   <dimension ref="A1:BG1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1294,7 @@
         <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="AI1" t="s">
         <v>34</v>
@@ -1572,17 +1575,17 @@
         <v>117</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="14">
         <v>15</v>
       </c>
       <c r="M3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
@@ -1594,97 +1597,97 @@
         <v>4.8</v>
       </c>
       <c r="T3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="W3" s="17">
         <v>1</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="AA3" s="17">
         <v>1</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="AE3" s="17">
         <v>1</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH3" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="AI3" s="17">
         <v>1</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL3" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="AM3" s="17">
         <v>1</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP3" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="AP3" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="AQ3" s="17">
         <v>1</v>
       </c>
       <c r="AR3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT3" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="AT3" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="AU3" s="17">
         <v>1</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AW3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX3" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="AX3" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="AY3" s="17">
         <v>1</v>
@@ -1748,10 +1751,10 @@
     </row>
     <row r="5" spans="1:59" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>126</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -1803,10 +1806,10 @@
     </row>
     <row r="6" spans="1:59" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -1858,10 +1861,10 @@
     </row>
     <row r="7" spans="1:59" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -1952,7 +1955,7 @@
       <c r="AS8" s="27"/>
       <c r="AT8" s="27"/>
       <c r="AU8" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AV8" s="27"/>
       <c r="AW8" s="27"/>
@@ -1982,7 +1985,7 @@
       <c r="AA9" s="27"/>
       <c r="AB9" s="27"/>
       <c r="AC9" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD9" s="27"/>
       <c r="AE9" s="27"/>
